--- a/Blackbear-Consultants_Deliverable_1_ProductBacklog_1.xlsx
+++ b/Blackbear-Consultants_Deliverable_1_ProductBacklog_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullahkarim/Documents/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullahkarim/Documents/GitHub/Blackbear-Consultants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A6579B-D2CE-B548-A664-FEAECD0C0CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF77B27-85F6-D241-82FC-93D354368DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{CC80B0B7-5F4E-3A4A-BBF9-DDB91082E0A8}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{CC80B0B7-5F4E-3A4A-BBF9-DDB91082E0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC21536-74B4-4E4A-89C7-BB516A9A331B}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -789,7 +789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -804,7 +804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -924,7 +924,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>

--- a/Blackbear-Consultants_Deliverable_1_ProductBacklog_1.xlsx
+++ b/Blackbear-Consultants_Deliverable_1_ProductBacklog_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullahkarim/Documents/GitHub/Blackbear-Consultants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF77B27-85F6-D241-82FC-93D354368DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35331B8B-8BE4-6F48-9A1A-CA529323A69B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{CC80B0B7-5F4E-3A4A-BBF9-DDB91082E0A8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{CC80B0B7-5F4E-3A4A-BBF9-DDB91082E0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Story ID</t>
   </si>
@@ -153,13 +153,58 @@
   </si>
   <si>
     <t>As a user (instructor) I want the app to probe the child to get an understanding of what they know so that the app can better teach the child things that they have not learned, as well as not teach them things they have already mastered</t>
+  </si>
+  <si>
+    <t>Product owner</t>
+  </si>
+  <si>
+    <t>manage the product backlog</t>
+  </si>
+  <si>
+    <t>Order items in the product backlog</t>
+  </si>
+  <si>
+    <t>make the product backlog visible to all</t>
+  </si>
+  <si>
+    <t>determine what is done and is acceptable in the sprint</t>
+  </si>
+  <si>
+    <t>creates required documents</t>
+  </si>
+  <si>
+    <t>may cancel a sprint if the sprint goal becomes obsolete</t>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+  </si>
+  <si>
+    <t>Sprint reviewing</t>
+  </si>
+  <si>
+    <t>Product owner marks what items are "done" and "not done" on the sprint backlog file</t>
+  </si>
+  <si>
+    <t>Dev team discusses what went well, what problems occurred, and how the problems were solved</t>
+  </si>
+  <si>
+    <t>Dev team demonstrates the work "done (software and documents)</t>
+  </si>
+  <si>
+    <t>Product owner discusses the product backlog and any changes due to time, budget, or market issues</t>
+  </si>
+  <si>
+    <t>Product owner, dev team, scrumboi talk about what to do next from their perspectives</t>
+  </si>
+  <si>
+    <t>Another dev team downloads, compiles, executes, and reviews the product and other project artifacts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,6 +217,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -312,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -337,6 +390,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC21536-74B4-4E4A-89C7-BB516A9A331B}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,6 +905,9 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
+      <c r="H12" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -863,6 +920,9 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -875,6 +935,9 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -887,6 +950,9 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -899,8 +965,11 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -911,8 +980,11 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -923,8 +995,11 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -936,7 +1011,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -947,8 +1022,11 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -960,7 +1038,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -971,8 +1049,11 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H22" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -983,8 +1064,11 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -995,8 +1079,11 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1007,6 +1094,24 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="1"/>
+      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Blackbear-Consultants_Deliverable_1_ProductBacklog_1.xlsx
+++ b/Blackbear-Consultants_Deliverable_1_ProductBacklog_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullahkarim/Documents/GitHub/Blackbear-Consultants/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B13A09-2BCE-E744-9104-5A563FE457CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,20 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>Story ID</t>
   </si>
@@ -224,12 +217,15 @@
   </si>
   <si>
     <t>*Each point is worth about 2 hours</t>
+  </si>
+  <si>
+    <t>IP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -757,25 +753,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="136.875" customWidth="1"/>
+    <col min="2" max="2" width="136.83203125" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -817,7 +813,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -844,7 +840,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -858,7 +854,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F4" s="18">
         <v>2</v>
@@ -874,7 +870,7 @@
       </c>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -902,7 +898,7 @@
       </c>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -930,16 +926,14 @@
       </c>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
+      <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
         <v>57</v>
       </c>
@@ -958,7 +952,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -981,16 +975,14 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
+      <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
         <v>57</v>
       </c>
@@ -1005,7 +997,7 @@
       </c>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1026,7 +1018,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1044,16 +1036,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="16">
-        <v>1</v>
-      </c>
+      <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
         <v>57</v>
       </c>
@@ -1065,7 +1055,7 @@
       </c>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1083,16 +1073,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="16">
-        <v>1</v>
-      </c>
+      <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
         <v>57</v>
       </c>
@@ -1103,16 +1091,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="16">
-        <v>1</v>
-      </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
         <v>57</v>
       </c>
@@ -1123,7 +1109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1141,7 +1127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1159,7 +1145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1177,7 +1163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1195,7 +1181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1213,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1231,16 +1217,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="16">
-        <v>1</v>
-      </c>
+      <c r="C22" s="16"/>
       <c r="D22" s="16" t="s">
         <v>57</v>
       </c>
@@ -1251,7 +1235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1269,7 +1253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1287,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1305,7 +1289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1323,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1341,78 +1325,78 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F31" s="12"/>
       <c r="G31" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J53" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J59" t="s">
         <v>39</v>
       </c>
